--- a/KarmenFiles/DB_Karmen_v2.0.xlsx
+++ b/KarmenFiles/DB_Karmen_v2.0.xlsx
@@ -305,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +371,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -468,7 +477,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -484,6 +492,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3672,7 +3683,7 @@
   <dimension ref="E1:S78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3693,7 +3704,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:18">
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3706,7 +3717,7 @@
       <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3745,10 +3756,10 @@
       </c>
     </row>
     <row r="10" spans="5:18">
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3756,18 +3767,18 @@
       <c r="K11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="5:18">
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -3951,7 +3962,7 @@
       <c r="P23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3968,10 +3979,10 @@
       <c r="P24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3987,10 +3998,10 @@
         <v>28</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="20" t="s">
+      <c r="S25" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4004,10 +4015,10 @@
         <v>15</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4020,10 +4031,10 @@
       <c r="M27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="S27" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4034,21 +4045,21 @@
       </c>
       <c r="M28" s="1"/>
       <c r="P28" s="5"/>
-      <c r="R28" s="14" t="s">
+      <c r="R28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S28" s="20" t="s">
+      <c r="S28" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="5:19">
       <c r="K29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="P29" s="17"/>
-      <c r="R29" s="14" t="s">
+      <c r="P29" s="16"/>
+      <c r="R29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4057,11 +4068,11 @@
         <v>32</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="P30" s="17"/>
-      <c r="R30" s="14" t="s">
+      <c r="P30" s="16"/>
+      <c r="R30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S30" s="20" t="s">
+      <c r="S30" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4073,11 +4084,11 @@
       <c r="M31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="17"/>
+      <c r="P31" s="16"/>
       <c r="R31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S31" s="20" t="s">
+      <c r="S31" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4088,11 +4099,11 @@
       <c r="M32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P32" s="17"/>
+      <c r="P32" s="16"/>
       <c r="R32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S32" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4104,11 +4115,11 @@
       <c r="M33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="16"/>
       <c r="R33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="20" t="s">
+      <c r="S33" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4122,11 +4133,11 @@
       <c r="M34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="17"/>
+      <c r="P34" s="16"/>
       <c r="R34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="20" t="s">
+      <c r="S34" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4141,7 +4152,7 @@
         <v>15</v>
       </c>
       <c r="P35" s="3"/>
-      <c r="R35" s="17"/>
+      <c r="R35" s="16"/>
     </row>
     <row r="36" spans="9:19">
       <c r="I36" s="1" t="s">
@@ -4152,7 +4163,7 @@
       </c>
       <c r="M36" s="1"/>
       <c r="P36" s="3"/>
-      <c r="R36" s="17"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="9:19">
       <c r="I37" s="1"/>
@@ -4160,47 +4171,47 @@
         <v>41</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="R37" s="17"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="9:19">
       <c r="K38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
     </row>
     <row r="39" spans="9:19">
       <c r="K39" s="1"/>
-      <c r="P39" s="17"/>
-      <c r="R39" s="17"/>
+      <c r="P39" s="16"/>
+      <c r="R39" s="16"/>
     </row>
     <row r="40" spans="9:19">
       <c r="K40" s="1"/>
-      <c r="P40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="P40" s="16"/>
+      <c r="R40" s="16"/>
     </row>
     <row r="41" spans="9:19">
       <c r="K41" s="1"/>
-      <c r="P41" s="17"/>
+      <c r="P41" s="16"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="9:19">
-      <c r="P42" s="17"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="9:19">
-      <c r="P43" s="17"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" spans="9:19">
-      <c r="P44" s="17"/>
+      <c r="P44" s="16"/>
     </row>
     <row r="45" spans="9:19">
-      <c r="P45" s="17"/>
+      <c r="P45" s="16"/>
     </row>
     <row r="46" spans="9:19">
-      <c r="P46" s="17"/>
+      <c r="P46" s="16"/>
     </row>
     <row r="47" spans="9:19">
-      <c r="P47" s="19"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="52" spans="5:12" ht="18.75">
       <c r="E52" s="7" t="s">
@@ -4278,19 +4289,19 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="5:12" ht="18.75">
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="61" spans="5:12">
       <c r="G61" s="2" t="s">
@@ -4315,68 +4326,68 @@
       </c>
     </row>
     <row r="63" spans="5:12">
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="15" t="s">
+      <c r="K63" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="5:12">
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="7:11">
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="K65" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="7:11">
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="7:11">
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="68" spans="7:11">
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4391,37 +4402,37 @@
       </c>
     </row>
     <row r="72" spans="7:11">
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="7:11">
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="7:11">
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="7:11">
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="76" spans="7:11">
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="7:11">
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="7:11">
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="12" t="s">
         <v>64</v>
       </c>
     </row>

--- a/KarmenFiles/DB_Karmen_v2.0.xlsx
+++ b/KarmenFiles/DB_Karmen_v2.0.xlsx
@@ -305,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,9 +380,17 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -497,6 +505,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3682,8 +3692,8 @@
   </sheetPr>
   <dimension ref="E1:S78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3979,7 +3989,7 @@
       <c r="P24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="23" t="s">
         <v>67</v>
       </c>
       <c r="S24" s="19" t="s">
@@ -3998,7 +4008,7 @@
         <v>28</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="S25" s="19" t="s">
@@ -4031,7 +4041,7 @@
       <c r="M27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="19" t="s">
@@ -4045,7 +4055,7 @@
       </c>
       <c r="M28" s="1"/>
       <c r="P28" s="5"/>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="S28" s="19" t="s">
@@ -4056,7 +4066,7 @@
       <c r="K29" s="1"/>
       <c r="M29" s="1"/>
       <c r="P29" s="16"/>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="23" t="s">
         <v>69</v>
       </c>
       <c r="S29" s="19" t="s">
@@ -4069,7 +4079,7 @@
       </c>
       <c r="K30" s="1"/>
       <c r="P30" s="16"/>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="23" t="s">
         <v>52</v>
       </c>
       <c r="S30" s="19" t="s">
@@ -4085,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="P31" s="16"/>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S31" s="19" t="s">
@@ -4100,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="16"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="24" t="s">
         <v>38</v>
       </c>
       <c r="S32" s="19" t="s">
@@ -4116,7 +4126,7 @@
         <v>31</v>
       </c>
       <c r="P33" s="16"/>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="24" t="s">
         <v>40</v>
       </c>
       <c r="S33" s="19" t="s">
@@ -4135,7 +4145,7 @@
       </c>
       <c r="P34" s="16"/>
       <c r="R34" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="S34" s="19" t="s">
         <v>73</v>
